--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_4605.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_4605.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4605</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Rovman Powell</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3960</t>
+          <t>3960</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3961</t>
+          <t>3961</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3963</t>
+          <t>3963</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3964</t>
+          <t>3964</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -712,7 +777,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4043</t>
+          <t>4043</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -752,7 +817,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>14/06/2017</t>
@@ -760,7 +824,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4046</t>
+          <t>4046</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -812,7 +876,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4053</t>
+          <t>4053</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -864,7 +928,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4056</t>
+          <t>4056</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -916,7 +980,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4057</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -968,7 +1032,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4068</t>
+          <t>4068</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1008,7 +1072,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>21/09/2017</t>
@@ -1016,7 +1079,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4070</t>
+          <t>4070</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1068,7 +1131,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4072</t>
+          <t>4072</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1120,7 +1183,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4073</t>
+          <t>4073</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1172,7 +1235,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4075</t>
+          <t>4075</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1224,7 +1287,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4100</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1276,7 +1339,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4101</t>
+          <t>4101</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1328,7 +1391,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4102</t>
+          <t>4102</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1368,7 +1431,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>08/03/2018</t>
@@ -1376,7 +1438,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4148</t>
+          <t>4148</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1428,7 +1490,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4150</t>
+          <t>4150</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1480,7 +1542,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4154</t>
+          <t>4154</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1532,7 +1594,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4159</t>
+          <t>4159</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1584,7 +1646,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4161</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1636,7 +1698,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4164</t>
+          <t>4164</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1688,7 +1750,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4179</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1740,7 +1802,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4180</t>
+          <t>4180</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1792,7 +1854,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4181</t>
+          <t>4181</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1844,7 +1906,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4213</t>
+          <t>4213</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1896,7 +1958,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4216</t>
+          <t>4216</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1948,7 +2010,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4219</t>
+          <t>4219</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2000,7 +2062,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4220</t>
+          <t>4220</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2052,7 +2114,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4221</t>
+          <t>4221</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2104,7 +2166,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4228</t>
+          <t>4228</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2156,7 +2218,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4229</t>
+          <t>4229</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2208,7 +2270,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4230</t>
+          <t>4230</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2260,7 +2322,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4443</t>
+          <t>4443</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2312,7 +2374,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4445</t>
+          <t>4445</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2364,7 +2426,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4447</t>
+          <t>4447</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2416,7 +2478,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4586</t>
+          <t>4586</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2468,7 +2530,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4590</t>
+          <t>4590</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2520,7 +2582,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4592</t>
+          <t>4592</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2572,7 +2634,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4606</t>
+          <t>4606</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2624,7 +2686,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4611</t>
+          <t>4611</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2676,7 +2738,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4616</t>
+          <t>4616</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2728,7 +2790,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4621</t>
+          <t>4621</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2780,7 +2842,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4623</t>
+          <t>4623</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2832,7 +2894,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4727</t>
+          <t>4727</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2884,7 +2946,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4731</t>
+          <t>4731</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2923,7 +2985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2945,7 +3007,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -2982,7 +3044,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4043</t>
+          <t>4043</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3019,7 +3081,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4057</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -3056,7 +3118,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4072</t>
+          <t>4072</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3093,7 +3155,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4073</t>
+          <t>4073</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3130,7 +3192,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4075</t>
+          <t>4075</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3167,7 +3229,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4100</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3204,7 +3266,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4101</t>
+          <t>4101</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3241,7 +3303,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4154</t>
+          <t>4154</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3278,7 +3340,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4159</t>
+          <t>4159</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3315,7 +3377,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4220</t>
+          <t>4220</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3352,7 +3414,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4228</t>
+          <t>4228</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -3389,7 +3451,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4229</t>
+          <t>4229</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3426,7 +3488,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4230</t>
+          <t>4230</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3463,7 +3525,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4590</t>
+          <t>4590</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3500,7 +3562,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4616</t>
+          <t>4616</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3526,6 +3588,573 @@
       <c r="G16" t="inlineStr">
         <is>
           <t>0/8</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4216</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5.61%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4219</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1.41%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4220</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.65%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4221</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>15.38%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4228</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>7.18%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4229</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.39%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4230</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.51%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4443</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4445</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>27.70%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4447</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>26.55%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4586</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4590</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4592</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>4.63%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4606</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4611</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>12.04%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4616</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>10.11%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4621</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1.97%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4623</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4727</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4731</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.77%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_4605.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_4605.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -817,6 +816,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>14/06/2017</t>
@@ -829,7 +829,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1072,6 +1072,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>21/09/2017</t>
@@ -1084,7 +1085,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1431,6 +1432,7 @@
           <t>18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>08/03/2018</t>
@@ -3594,571 +3596,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4216</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>5.61%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4219</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1.41%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4220</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0.65%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4221</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>15.38%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4228</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>7.18%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4229</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0.39%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4230</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0.51%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4443</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4445</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>27.70%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4447</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>26.55%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4586</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4590</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4592</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>6</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4.63%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4606</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4611</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>6</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>12.04%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4616</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>6</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>10.11%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4621</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>6</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1.97%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4623</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4727</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4731</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>6</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0.77%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>